--- a/BathDream/wwwroot/templates/BDTemplate.xlsx
+++ b/BathDream/wwwroot/templates/BDTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wizar\YandexDisk\Oleg\Coding\web\BathDream\BathDream\wwwroot\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YandexDisk-omoiseev@micro-solution.ru\Oleg\Coding\web\BathDream\BathDream\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48FE2510-2F7A-4519-8D4C-0297A6A5C50D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0D9E97-23A7-4DFC-82FE-0F09E5E64373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4440" windowWidth="20730" windowHeight="11760" xr2:uid="{E2F010F3-4C9E-4144-B942-1168527CF023}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E2F010F3-4C9E-4144-B942-1168527CF023}"/>
   </bookViews>
   <sheets>
     <sheet name="Смета" sheetId="1" r:id="rId1"/>
@@ -306,13 +306,6 @@
       <charset val="204"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Times New Roman"/>
-      <family val="1"/>
-      <charset val="204"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Times New Roman"/>
@@ -340,6 +333,12 @@
       <family val="2"/>
       <charset val="204"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="3">
@@ -555,25 +554,24 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -614,6 +612,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -948,15 +947,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+      <c r="B2" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="41"/>
+      <c r="D2" s="41"/>
+      <c r="E2" s="41"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="42"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -1049,16 +1048,10 @@
       <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="14">
-        <v>2</v>
-      </c>
-      <c r="F10" s="14">
-        <v>3</v>
-      </c>
-      <c r="G10" s="14">
-        <v>2.7</v>
-      </c>
-      <c r="H10" s="15"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="14"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="8"/>
@@ -1069,9 +1062,9 @@
       <c r="E11" s="11"/>
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
-      <c r="H11" s="16">
+      <c r="H11" s="15">
         <f>E10*F10</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1083,9 +1076,9 @@
       <c r="E12" s="11"/>
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
-      <c r="H12" s="16">
+      <c r="H12" s="15">
         <f>2*(F10+E10)*G10-H14</f>
-        <v>25.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1097,27 +1090,23 @@
       <c r="E13" s="11"/>
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
-      <c r="H13" s="16">
+      <c r="H13" s="15">
         <f>F10*E10</f>
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="19" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="E14" s="19"/>
-      <c r="F14" s="19">
-        <v>0.6</v>
-      </c>
-      <c r="G14" s="19">
-        <v>2</v>
-      </c>
-      <c r="H14" s="20">
-        <f>G14*F14</f>
-        <v>1.2</v>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19">
+        <f>G14*E14</f>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1130,36 +1119,36 @@
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21" t="s">
+      <c r="C16" s="20"/>
+      <c r="D16" s="20" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="22" t="s">
+      <c r="E16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="23" t="s">
+      <c r="F16" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="23" t="s">
+      <c r="G16" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="H16" s="24" t="s">
+      <c r="H16" s="23" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26" t="s">
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="25"/>
-      <c r="H17" s="25"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
@@ -1169,7 +1158,7 @@
       <c r="D18" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="E18" s="27" t="s">
+      <c r="E18" s="26" t="s">
         <v>24</v>
       </c>
       <c r="F18" s="2">
@@ -1178,40 +1167,40 @@
       <c r="G18" s="2">
         <v>0</v>
       </c>
-      <c r="H18" s="28">
+      <c r="H18" s="27">
         <f t="shared" ref="H18:H25" si="0">G18*F18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30" t="s">
+      <c r="B19" s="28"/>
+      <c r="C19" s="28"/>
+      <c r="D19" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="E19" s="29"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
     </row>
     <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D20" s="27" t="s">
+      <c r="D20" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="E20" s="27" t="s">
+      <c r="E20" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F20" s="32">
+      <c r="F20" s="31">
         <v>150</v>
       </c>
-      <c r="G20" s="32">
-        <v>0</v>
-      </c>
-      <c r="H20" s="28">
+      <c r="G20" s="31">
+        <v>0</v>
+      </c>
+      <c r="H20" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1221,19 +1210,19 @@
       <c r="C21" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D21" s="27" t="s">
+      <c r="D21" s="26" t="s">
         <v>64</v>
       </c>
-      <c r="E21" s="27" t="s">
+      <c r="E21" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F21" s="32">
+      <c r="F21" s="31">
         <v>600</v>
       </c>
-      <c r="G21" s="32">
-        <v>0</v>
-      </c>
-      <c r="H21" s="28">
+      <c r="G21" s="31">
+        <v>0</v>
+      </c>
+      <c r="H21" s="27">
         <f>G21*F21</f>
         <v>0</v>
       </c>
@@ -1243,19 +1232,19 @@
       <c r="C22" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D22" s="27" t="s">
+      <c r="D22" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="27" t="s">
+      <c r="E22" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F22" s="32">
+      <c r="F22" s="31">
         <v>300</v>
       </c>
-      <c r="G22" s="32">
-        <v>0</v>
-      </c>
-      <c r="H22" s="28">
+      <c r="G22" s="31">
+        <v>0</v>
+      </c>
+      <c r="H22" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1265,19 +1254,19 @@
       <c r="C23" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D23" s="27" t="s">
+      <c r="D23" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E23" s="27" t="s">
+      <c r="E23" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F23" s="32">
+      <c r="F23" s="31">
         <v>2100</v>
       </c>
-      <c r="G23" s="32">
-        <v>0</v>
-      </c>
-      <c r="H23" s="28">
+      <c r="G23" s="31">
+        <v>0</v>
+      </c>
+      <c r="H23" s="27">
         <f>G23*F23</f>
         <v>0</v>
       </c>
@@ -1287,19 +1276,19 @@
       <c r="C24" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D24" s="27" t="s">
+      <c r="D24" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E24" s="27" t="s">
+      <c r="E24" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F24" s="32">
+      <c r="F24" s="31">
         <v>300</v>
       </c>
-      <c r="G24" s="32">
-        <v>0</v>
-      </c>
-      <c r="H24" s="28">
+      <c r="G24" s="31">
+        <v>0</v>
+      </c>
+      <c r="H24" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1309,19 +1298,19 @@
       <c r="C25" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D25" s="27" t="s">
+      <c r="D25" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E25" s="27" t="s">
+      <c r="E25" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F25" s="32">
+      <c r="F25" s="31">
         <v>300</v>
       </c>
-      <c r="G25" s="32">
-        <v>0</v>
-      </c>
-      <c r="H25" s="28">
+      <c r="G25" s="31">
+        <v>0</v>
+      </c>
+      <c r="H25" s="27">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1331,19 +1320,19 @@
       <c r="C26" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="27" t="s">
+      <c r="D26" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E26" s="27" t="s">
+      <c r="E26" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F26" s="32">
+      <c r="F26" s="31">
         <v>350</v>
       </c>
       <c r="G26" s="2">
         <v>0</v>
       </c>
-      <c r="H26" s="32" t="s">
+      <c r="H26" s="31" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1352,51 +1341,51 @@
       <c r="C27" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D27" s="27" t="s">
+      <c r="D27" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E27" s="27" t="s">
+      <c r="E27" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F27" s="32">
+      <c r="F27" s="31">
         <v>1050</v>
       </c>
       <c r="G27" s="2">
         <v>0</v>
       </c>
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="30" t="s">
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="29"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D29" s="27" t="s">
+      <c r="D29" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="E29" s="27" t="s">
+      <c r="E29" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F29" s="32">
+      <c r="F29" s="31">
         <v>150</v>
       </c>
-      <c r="G29" s="32">
-        <v>0</v>
-      </c>
-      <c r="H29" s="28">
+      <c r="G29" s="31">
+        <v>0</v>
+      </c>
+      <c r="H29" s="27">
         <f>G29*F29</f>
         <v>0</v>
       </c>
@@ -1406,19 +1395,19 @@
       <c r="C30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F30" s="32">
+      <c r="F30" s="31">
         <v>600</v>
       </c>
-      <c r="G30" s="32">
-        <v>0</v>
-      </c>
-      <c r="H30" s="28">
+      <c r="G30" s="31">
+        <v>0</v>
+      </c>
+      <c r="H30" s="27">
         <f t="shared" ref="H30:H31" si="1">G30*F30</f>
         <v>0</v>
       </c>
@@ -1428,19 +1417,19 @@
       <c r="C31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D31" s="27" t="s">
+      <c r="D31" s="26" t="s">
         <v>66</v>
       </c>
-      <c r="E31" s="27" t="s">
+      <c r="E31" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F31" s="32">
+      <c r="F31" s="31">
         <v>300</v>
       </c>
-      <c r="G31" s="32">
-        <v>0</v>
-      </c>
-      <c r="H31" s="28">
+      <c r="G31" s="31">
+        <v>0</v>
+      </c>
+      <c r="H31" s="27">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1450,19 +1439,19 @@
       <c r="C32" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D32" s="27" t="s">
+      <c r="D32" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="E32" s="27" t="s">
+      <c r="E32" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F32" s="32">
+      <c r="F32" s="31">
         <v>2100</v>
       </c>
-      <c r="G32" s="32">
-        <v>0</v>
-      </c>
-      <c r="H32" s="28">
+      <c r="G32" s="31">
+        <v>0</v>
+      </c>
+      <c r="H32" s="27">
         <f>G32*F32</f>
         <v>0</v>
       </c>
@@ -1472,19 +1461,19 @@
       <c r="C33" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D33" s="27" t="s">
+      <c r="D33" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="E33" s="27" t="s">
+      <c r="E33" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F33" s="32">
+      <c r="F33" s="31">
         <v>200</v>
       </c>
-      <c r="G33" s="32">
-        <v>0</v>
-      </c>
-      <c r="H33" s="28">
+      <c r="G33" s="31">
+        <v>0</v>
+      </c>
+      <c r="H33" s="27">
         <f>G33*F33</f>
         <v>0</v>
       </c>
@@ -1494,19 +1483,19 @@
       <c r="C34" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="27" t="s">
+      <c r="D34" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="27" t="s">
+      <c r="E34" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F34" s="32">
+      <c r="F34" s="31">
         <v>300</v>
       </c>
-      <c r="G34" s="32">
-        <v>0</v>
-      </c>
-      <c r="H34" s="28">
+      <c r="G34" s="31">
+        <v>0</v>
+      </c>
+      <c r="H34" s="27">
         <f>G34*F34</f>
         <v>0</v>
       </c>
@@ -1516,19 +1505,19 @@
       <c r="C35" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D35" s="27" t="s">
+      <c r="D35" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="E35" s="27" t="s">
+      <c r="E35" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F35" s="32">
+      <c r="F35" s="31">
         <v>350</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
       </c>
-      <c r="H35" s="32" t="s">
+      <c r="H35" s="31" t="s">
         <v>35</v>
       </c>
     </row>
@@ -1537,51 +1526,51 @@
       <c r="C36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D36" s="27" t="s">
+      <c r="D36" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="E36" s="27" t="s">
+      <c r="E36" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="F36" s="32">
+      <c r="F36" s="31">
         <v>1050</v>
       </c>
       <c r="G36" s="2">
         <v>0</v>
       </c>
-      <c r="H36" s="32" t="s">
+      <c r="H36" s="31" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="29"/>
-      <c r="C37" s="29"/>
-      <c r="D37" s="30" t="s">
+      <c r="B37" s="28"/>
+      <c r="C37" s="28"/>
+      <c r="D37" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="E37" s="29"/>
-      <c r="F37" s="31"/>
-      <c r="G37" s="31"/>
-      <c r="H37" s="31"/>
+      <c r="E37" s="28"/>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
     </row>
     <row r="38" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D38" s="27" t="s">
+      <c r="D38" s="26" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="27" t="s">
+      <c r="E38" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="32">
+      <c r="F38" s="31">
         <v>500</v>
       </c>
-      <c r="G38" s="32">
-        <v>0</v>
-      </c>
-      <c r="H38" s="28">
+      <c r="G38" s="31">
+        <v>0</v>
+      </c>
+      <c r="H38" s="27">
         <f>G38*F38</f>
         <v>0</v>
       </c>
@@ -1591,19 +1580,19 @@
       <c r="C39" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D39" s="27" t="s">
+      <c r="D39" s="26" t="s">
         <v>43</v>
       </c>
-      <c r="E39" s="27" t="s">
+      <c r="E39" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F39" s="32">
+      <c r="F39" s="31">
         <v>1200</v>
       </c>
-      <c r="G39" s="32">
-        <v>0</v>
-      </c>
-      <c r="H39" s="28">
+      <c r="G39" s="31">
+        <v>0</v>
+      </c>
+      <c r="H39" s="27">
         <f>G39*F39</f>
         <v>0</v>
       </c>
@@ -1613,52 +1602,52 @@
       <c r="C40" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D40" s="27" t="s">
+      <c r="D40" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="E40" s="27" t="s">
+      <c r="E40" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F40" s="32">
+      <c r="F40" s="31">
         <v>1200</v>
       </c>
       <c r="G40" s="2">
         <v>0</v>
       </c>
-      <c r="H40" s="28">
+      <c r="H40" s="27">
         <f t="shared" ref="H40" si="2">G40*F40</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="29"/>
-      <c r="C41" s="29"/>
-      <c r="D41" s="30" t="s">
+      <c r="B41" s="28"/>
+      <c r="C41" s="28"/>
+      <c r="D41" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="E41" s="29"/>
-      <c r="F41" s="31"/>
-      <c r="G41" s="31"/>
-      <c r="H41" s="31"/>
+      <c r="E41" s="28"/>
+      <c r="F41" s="30"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
     </row>
     <row r="42" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D42" s="40" t="s">
+      <c r="D42" s="39" t="s">
         <v>25</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F42" s="32">
+      <c r="F42" s="31">
         <v>4800</v>
       </c>
-      <c r="G42" s="32">
-        <v>0</v>
-      </c>
-      <c r="H42" s="28">
+      <c r="G42" s="31">
+        <v>0</v>
+      </c>
+      <c r="H42" s="27">
         <f t="shared" ref="H42:H61" si="3">G42*F42</f>
         <v>0</v>
       </c>
@@ -1668,19 +1657,19 @@
       <c r="C43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D43" s="40" t="s">
+      <c r="D43" s="39" t="s">
         <v>45</v>
       </c>
-      <c r="E43" s="27" t="s">
+      <c r="E43" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F43" s="33" t="s">
+      <c r="F43" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G43" s="32">
-        <v>0</v>
-      </c>
-      <c r="H43" s="28" t="s">
+      <c r="G43" s="31">
+        <v>0</v>
+      </c>
+      <c r="H43" s="27" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1689,19 +1678,19 @@
       <c r="C44" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D44" s="40" t="s">
+      <c r="D44" s="39" t="s">
         <v>47</v>
       </c>
-      <c r="E44" s="27" t="s">
+      <c r="E44" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F44" s="32">
+      <c r="F44" s="31">
         <v>20000</v>
       </c>
-      <c r="G44" s="32">
-        <v>0</v>
-      </c>
-      <c r="H44" s="28">
+      <c r="G44" s="31">
+        <v>0</v>
+      </c>
+      <c r="H44" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1711,19 +1700,19 @@
       <c r="C45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D45" s="40" t="s">
+      <c r="D45" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="E45" s="27" t="s">
+      <c r="E45" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F45" s="33" t="s">
+      <c r="F45" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G45" s="32">
-        <v>0</v>
-      </c>
-      <c r="H45" s="28" t="s">
+      <c r="G45" s="31">
+        <v>0</v>
+      </c>
+      <c r="H45" s="27" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1732,19 +1721,19 @@
       <c r="C46" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="40" t="s">
+      <c r="D46" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="E46" s="27" t="s">
+      <c r="E46" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F46" s="33" t="s">
+      <c r="F46" s="32" t="s">
         <v>46</v>
       </c>
-      <c r="G46" s="32">
-        <v>0</v>
-      </c>
-      <c r="H46" s="28" t="s">
+      <c r="G46" s="31">
+        <v>0</v>
+      </c>
+      <c r="H46" s="27" t="s">
         <v>68</v>
       </c>
     </row>
@@ -1753,19 +1742,19 @@
       <c r="C47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D47" s="40" t="s">
+      <c r="D47" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="E47" s="27" t="s">
+      <c r="E47" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F47" s="32">
+      <c r="F47" s="31">
         <v>3500</v>
       </c>
-      <c r="G47" s="32">
-        <v>0</v>
-      </c>
-      <c r="H47" s="28">
+      <c r="G47" s="31">
+        <v>0</v>
+      </c>
+      <c r="H47" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1775,19 +1764,19 @@
       <c r="C48" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D48" s="40" t="s">
+      <c r="D48" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F48" s="32">
+      <c r="F48" s="31">
         <v>7500</v>
       </c>
-      <c r="G48" s="32">
-        <v>0</v>
-      </c>
-      <c r="H48" s="28">
+      <c r="G48" s="31">
+        <v>0</v>
+      </c>
+      <c r="H48" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1797,19 +1786,19 @@
       <c r="C49" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="40" t="s">
+      <c r="D49" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="E49" s="27" t="s">
+      <c r="E49" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F49" s="32">
+      <c r="F49" s="31">
         <v>3700</v>
       </c>
-      <c r="G49" s="32">
-        <v>0</v>
-      </c>
-      <c r="H49" s="28">
+      <c r="G49" s="31">
+        <v>0</v>
+      </c>
+      <c r="H49" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1819,19 +1808,19 @@
       <c r="C50" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="40" t="s">
+      <c r="D50" s="39" t="s">
         <v>53</v>
       </c>
-      <c r="E50" s="27" t="s">
+      <c r="E50" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F50" s="32">
+      <c r="F50" s="31">
         <v>3500</v>
       </c>
-      <c r="G50" s="32">
-        <v>0</v>
-      </c>
-      <c r="H50" s="28">
+      <c r="G50" s="31">
+        <v>0</v>
+      </c>
+      <c r="H50" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1841,19 +1830,19 @@
       <c r="C51" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D51" s="40" t="s">
+      <c r="D51" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="E51" s="27" t="s">
+      <c r="E51" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F51" s="32">
+      <c r="F51" s="31">
         <v>3700</v>
       </c>
-      <c r="G51" s="32">
-        <v>0</v>
-      </c>
-      <c r="H51" s="28">
+      <c r="G51" s="31">
+        <v>0</v>
+      </c>
+      <c r="H51" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1863,19 +1852,19 @@
       <c r="C52" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D52" s="40" t="s">
+      <c r="D52" s="39" t="s">
         <v>69</v>
       </c>
-      <c r="E52" s="27" t="s">
+      <c r="E52" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F52" s="32">
+      <c r="F52" s="31">
         <v>3700</v>
       </c>
-      <c r="G52" s="32">
-        <v>0</v>
-      </c>
-      <c r="H52" s="28">
+      <c r="G52" s="31">
+        <v>0</v>
+      </c>
+      <c r="H52" s="27">
         <f t="shared" ref="H52" si="4">G52*F52</f>
         <v>0</v>
       </c>
@@ -1885,19 +1874,19 @@
       <c r="C53" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D53" s="40" t="s">
+      <c r="D53" s="39" t="s">
         <v>55</v>
       </c>
-      <c r="E53" s="27" t="s">
+      <c r="E53" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F53" s="32">
+      <c r="F53" s="31">
         <v>3500</v>
       </c>
-      <c r="G53" s="32">
-        <v>0</v>
-      </c>
-      <c r="H53" s="28">
+      <c r="G53" s="31">
+        <v>0</v>
+      </c>
+      <c r="H53" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1907,19 +1896,19 @@
       <c r="C54" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D54" s="40" t="s">
+      <c r="D54" s="39" t="s">
         <v>56</v>
       </c>
-      <c r="E54" s="27" t="s">
+      <c r="E54" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F54" s="32">
+      <c r="F54" s="31">
         <v>2500</v>
       </c>
-      <c r="G54" s="32">
-        <v>0</v>
-      </c>
-      <c r="H54" s="28">
+      <c r="G54" s="31">
+        <v>0</v>
+      </c>
+      <c r="H54" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1929,19 +1918,19 @@
       <c r="C55" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D55" s="40" t="s">
+      <c r="D55" s="39" t="s">
         <v>57</v>
       </c>
-      <c r="E55" s="27" t="s">
+      <c r="E55" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F55" s="32">
+      <c r="F55" s="31">
         <v>4000</v>
       </c>
-      <c r="G55" s="32">
-        <v>0</v>
-      </c>
-      <c r="H55" s="28">
+      <c r="G55" s="31">
+        <v>0</v>
+      </c>
+      <c r="H55" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1951,19 +1940,19 @@
       <c r="C56" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D56" s="40" t="s">
+      <c r="D56" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="E56" s="27" t="s">
+      <c r="E56" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F56" s="32">
+      <c r="F56" s="31">
         <v>7500</v>
       </c>
-      <c r="G56" s="32">
-        <v>0</v>
-      </c>
-      <c r="H56" s="28">
+      <c r="G56" s="31">
+        <v>0</v>
+      </c>
+      <c r="H56" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1973,52 +1962,52 @@
       <c r="C57" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D57" s="40" t="s">
+      <c r="D57" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="E57" s="27" t="s">
+      <c r="E57" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="F57" s="32">
+      <c r="F57" s="31">
         <v>500</v>
       </c>
-      <c r="G57" s="32">
-        <v>0</v>
-      </c>
-      <c r="H57" s="28">
+      <c r="G57" s="31">
+        <v>0</v>
+      </c>
+      <c r="H57" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="29"/>
-      <c r="C58" s="29"/>
-      <c r="D58" s="30" t="s">
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="E58" s="29"/>
-      <c r="F58" s="31"/>
-      <c r="G58" s="31"/>
-      <c r="H58" s="31"/>
+      <c r="E58" s="28"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
     </row>
     <row r="59" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="27" t="s">
+      <c r="D59" s="26" t="s">
         <v>58</v>
       </c>
-      <c r="E59" s="27" t="s">
+      <c r="E59" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F59" s="32">
+      <c r="F59" s="31">
         <v>500</v>
       </c>
-      <c r="G59" s="32">
-        <v>0</v>
-      </c>
-      <c r="H59" s="28">
+      <c r="G59" s="31">
+        <v>0</v>
+      </c>
+      <c r="H59" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2028,19 +2017,19 @@
       <c r="C60" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E60" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F60" s="32">
+      <c r="F60" s="31">
         <v>750</v>
       </c>
-      <c r="G60" s="32">
-        <v>0</v>
-      </c>
-      <c r="H60" s="28">
+      <c r="G60" s="31">
+        <v>0</v>
+      </c>
+      <c r="H60" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2050,19 +2039,19 @@
       <c r="C61" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="27" t="s">
+      <c r="D61" s="26" t="s">
         <v>60</v>
       </c>
-      <c r="E61" s="27" t="s">
+      <c r="E61" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="F61" s="32">
+      <c r="F61" s="31">
         <v>1900</v>
       </c>
-      <c r="G61" s="32">
-        <v>0</v>
-      </c>
-      <c r="H61" s="28">
+      <c r="G61" s="31">
+        <v>0</v>
+      </c>
+      <c r="H61" s="27">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2070,22 +2059,22 @@
     <row r="62" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
       <c r="C62" s="2"/>
-      <c r="D62" s="27"/>
-      <c r="E62" s="27"/>
-      <c r="F62" s="32"/>
-      <c r="G62" s="32"/>
-      <c r="H62" s="28"/>
+      <c r="D62" s="26"/>
+      <c r="E62" s="26"/>
+      <c r="F62" s="31"/>
+      <c r="G62" s="31"/>
+      <c r="H62" s="27"/>
     </row>
     <row r="63" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="34"/>
-      <c r="C63" s="34"/>
-      <c r="D63" s="35" t="s">
+      <c r="B63" s="33"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="34" t="s">
         <v>61</v>
       </c>
-      <c r="E63" s="34"/>
-      <c r="F63" s="34"/>
-      <c r="G63" s="34"/>
-      <c r="H63" s="36">
+      <c r="E63" s="33"/>
+      <c r="F63" s="33"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="35">
         <f>SUM(H18:H59)</f>
         <v>0</v>
       </c>
@@ -2097,7 +2086,7 @@
       <c r="E64" s="2"/>
       <c r="F64" s="2"/>
       <c r="G64" s="2"/>
-      <c r="H64" s="37"/>
+      <c r="H64" s="36"/>
     </row>
     <row r="65" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
@@ -2106,7 +2095,7 @@
       <c r="E65" s="2"/>
       <c r="F65" s="2"/>
       <c r="G65" s="2"/>
-      <c r="H65" s="37"/>
+      <c r="H65" s="36"/>
     </row>
     <row r="66" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
@@ -2115,34 +2104,34 @@
       <c r="E66" s="2"/>
       <c r="F66" s="2"/>
       <c r="G66" s="2"/>
-      <c r="H66" s="37"/>
+      <c r="H66" s="36"/>
     </row>
     <row r="67" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="44" t="s">
+      <c r="B67" s="43" t="s">
         <v>62</v>
       </c>
-      <c r="C67" s="44"/>
-      <c r="D67" s="44"/>
-      <c r="E67" s="44"/>
-      <c r="F67" s="44"/>
-      <c r="G67" s="44"/>
-      <c r="H67" s="44"/>
+      <c r="C67" s="43"/>
+      <c r="D67" s="43"/>
+      <c r="E67" s="43"/>
+      <c r="F67" s="43"/>
+      <c r="G67" s="43"/>
+      <c r="H67" s="43"/>
     </row>
     <row r="68" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
       <c r="D68" s="2"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="38"/>
-      <c r="G68" s="38"/>
-      <c r="H68" s="39"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="37"/>
+      <c r="H68" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:H2"/>
     <mergeCell ref="B67:H67"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
+  <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/BathDream/wwwroot/templates/BDTemplate.xlsx
+++ b/BathDream/wwwroot/templates/BDTemplate.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\YandexDisk-omoiseev@micro-solution.ru\Oleg\Coding\web\BathDream\BathDream\wwwroot\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wizar\YandexDisk\Oleg\Coding\web\BathDream\BathDream\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC0D9E97-23A7-4DFC-82FE-0F09E5E64373}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBABC0C4-91BE-45BA-A35E-DA23AF835B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E2F010F3-4C9E-4144-B942-1168527CF023}"/>
+    <workbookView xWindow="28680" yWindow="4440" windowWidth="20730" windowHeight="11760" xr2:uid="{E2F010F3-4C9E-4144-B942-1168527CF023}"/>
   </bookViews>
   <sheets>
     <sheet name="Смета" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="73">
   <si>
     <t xml:space="preserve">Приложение № 1 </t>
   </si>
@@ -256,6 +256,15 @@
   </si>
   <si>
     <t>Гигеенический душь</t>
+  </si>
+  <si>
+    <t>точка</t>
+  </si>
+  <si>
+    <t>Разводка труб с опресовкой</t>
+  </si>
+  <si>
+    <t>Разводка канализации</t>
   </si>
 </sst>
 </file>
@@ -606,16 +615,16 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Финансовый 2" xfId="1" xr:uid="{C542692C-AF08-4E4F-95FD-869259D9B184}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -632,9 +641,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -672,7 +681,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -778,7 +787,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -929,7 +938,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A86F66E-AF72-43D6-AF64-092C22F93DEF}">
   <sheetPr codeName="Лист11"/>
-  <dimension ref="B1:H68"/>
+  <dimension ref="B1:H70"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -947,15 +956,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="41"/>
-      <c r="D2" s="41"/>
-      <c r="E2" s="41"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="42"/>
+      <c r="B2" s="41" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="43"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -1048,9 +1057,9 @@
       <c r="D10" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="44"/>
-      <c r="F10" s="44"/>
-      <c r="G10" s="44"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
       <c r="H10" s="14"/>
     </row>
     <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1648,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="27">
-        <f t="shared" ref="H42:H61" si="3">G42*F42</f>
+        <f t="shared" ref="H42:H63" si="3">G42*F42</f>
         <v>0</v>
       </c>
     </row>
@@ -1980,29 +1989,40 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
+      <c r="B58" s="2"/>
+      <c r="C58" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D58" s="39" t="s">
+        <v>71</v>
+      </c>
+      <c r="E58" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="F58" s="31">
+        <v>2000</v>
+      </c>
+      <c r="G58" s="31">
+        <v>0</v>
+      </c>
+      <c r="H58" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D59" s="26" t="s">
-        <v>58</v>
+      <c r="D59" s="39" t="s">
+        <v>72</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F59" s="31">
-        <v>500</v>
+        <v>7500</v>
       </c>
       <c r="G59" s="31">
         <v>0</v>
@@ -2013,26 +2033,15 @@
       </c>
     </row>
     <row r="60" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="2"/>
-      <c r="C60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F60" s="31">
-        <v>750</v>
-      </c>
-      <c r="G60" s="31">
-        <v>0</v>
-      </c>
-      <c r="H60" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="B60" s="28"/>
+      <c r="C60" s="28"/>
+      <c r="D60" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E60" s="28"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
     </row>
     <row r="61" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
@@ -2040,13 +2049,13 @@
         <v>29</v>
       </c>
       <c r="D61" s="26" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E61" s="26" t="s">
         <v>24</v>
       </c>
       <c r="F61" s="31">
-        <v>1900</v>
+        <v>500</v>
       </c>
       <c r="G61" s="31">
         <v>0</v>
@@ -2056,46 +2065,72 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-      <c r="D62" s="26"/>
-      <c r="E62" s="26"/>
-      <c r="F62" s="31"/>
-      <c r="G62" s="31"/>
-      <c r="H62" s="27"/>
+      <c r="C62" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D62" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E62" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F62" s="31">
+        <v>750</v>
+      </c>
+      <c r="G62" s="31">
+        <v>0</v>
+      </c>
+      <c r="H62" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="63" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B63" s="33"/>
-      <c r="C63" s="33"/>
-      <c r="D63" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E63" s="33"/>
-      <c r="F63" s="33"/>
-      <c r="G63" s="33"/>
-      <c r="H63" s="35">
-        <f>SUM(H18:H59)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D63" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F63" s="31">
+        <v>1900</v>
+      </c>
+      <c r="G63" s="31">
+        <v>0</v>
+      </c>
+      <c r="H63" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
       <c r="C64" s="2"/>
-      <c r="D64" s="3"/>
-      <c r="E64" s="2"/>
-      <c r="F64" s="2"/>
-      <c r="G64" s="2"/>
-      <c r="H64" s="36"/>
+      <c r="D64" s="26"/>
+      <c r="E64" s="26"/>
+      <c r="F64" s="31"/>
+      <c r="G64" s="31"/>
+      <c r="H64" s="27"/>
     </row>
     <row r="65" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-      <c r="D65" s="3"/>
-      <c r="E65" s="2"/>
-      <c r="F65" s="2"/>
-      <c r="G65" s="2"/>
-      <c r="H65" s="36"/>
+      <c r="B65" s="33"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E65" s="33"/>
+      <c r="F65" s="33"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="35">
+        <f>SUM(H18:H61)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
@@ -2107,29 +2142,47 @@
       <c r="H66" s="36"/>
     </row>
     <row r="67" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="43" t="s">
-        <v>62</v>
-      </c>
-      <c r="C67" s="43"/>
-      <c r="D67" s="43"/>
-      <c r="E67" s="43"/>
-      <c r="F67" s="43"/>
-      <c r="G67" s="43"/>
-      <c r="H67" s="43"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+      <c r="D67" s="3"/>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2"/>
+      <c r="G67" s="2"/>
+      <c r="H67" s="36"/>
     </row>
     <row r="68" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
       <c r="C68" s="2"/>
-      <c r="D68" s="2"/>
+      <c r="D68" s="3"/>
       <c r="E68" s="2"/>
-      <c r="F68" s="37"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="38"/>
+      <c r="F68" s="2"/>
+      <c r="G68" s="2"/>
+      <c r="H68" s="36"/>
+    </row>
+    <row r="69" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B69" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="C69" s="44"/>
+      <c r="D69" s="44"/>
+      <c r="E69" s="44"/>
+      <c r="F69" s="44"/>
+      <c r="G69" s="44"/>
+      <c r="H69" s="44"/>
+    </row>
+    <row r="70" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="37"/>
+      <c r="H70" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B67:H67"/>
+    <mergeCell ref="B69:H69"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BathDream/wwwroot/templates/BDTemplate.xlsx
+++ b/BathDream/wwwroot/templates/BDTemplate.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wizar\YandexDisk\Oleg\Coding\web\BathDream\BathDream\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBABC0C4-91BE-45BA-A35E-DA23AF835B7D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B148FA1A-FC37-418A-959C-4E5C51CD94EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="4440" windowWidth="20730" windowHeight="11760" xr2:uid="{E2F010F3-4C9E-4144-B942-1168527CF023}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E2F010F3-4C9E-4144-B942-1168527CF023}"/>
   </bookViews>
   <sheets>
     <sheet name="Смета" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="80">
   <si>
     <t xml:space="preserve">Приложение № 1 </t>
   </si>
@@ -265,6 +265,27 @@
   </si>
   <si>
     <t>Разводка канализации</t>
+  </si>
+  <si>
+    <t>Кран перекрытия</t>
+  </si>
+  <si>
+    <t>Фильтра грубой очистки</t>
+  </si>
+  <si>
+    <t>Обратного клапана</t>
+  </si>
+  <si>
+    <t>Счетчиков</t>
+  </si>
+  <si>
+    <t>Водяного коллектора ХВ</t>
+  </si>
+  <si>
+    <t>Водяного коллектора ГВ</t>
+  </si>
+  <si>
+    <t>Замена труб</t>
   </si>
 </sst>
 </file>
@@ -542,7 +563,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -616,6 +637,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -624,7 +646,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Финансовый 2" xfId="1" xr:uid="{C542692C-AF08-4E4F-95FD-869259D9B184}"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -641,9 +663,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -681,7 +703,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -787,7 +809,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -938,12 +960,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A86F66E-AF72-43D6-AF64-092C22F93DEF}">
   <sheetPr codeName="Лист11"/>
-  <dimension ref="B1:H70"/>
+  <dimension ref="A1:H77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="9.140625" style="41"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="59.42578125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
@@ -956,15 +979,15 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="41" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="42"/>
-      <c r="D2" s="42"/>
-      <c r="E2" s="42"/>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="43"/>
+      <c r="B2" s="42" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="44"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
@@ -1072,7 +1095,7 @@
       <c r="F11" s="11"/>
       <c r="G11" s="11"/>
       <c r="H11" s="15">
-        <f>E10*F10</f>
+        <f>E10*F10/1000000</f>
         <v>0</v>
       </c>
     </row>
@@ -1086,7 +1109,7 @@
       <c r="F12" s="11"/>
       <c r="G12" s="11"/>
       <c r="H12" s="15">
-        <f>2*(F10+E10)*G10-H14</f>
+        <f>(2*(F10+E10)*G10-H14)/1000000</f>
         <v>0</v>
       </c>
     </row>
@@ -1100,7 +1123,7 @@
       <c r="F13" s="11"/>
       <c r="G13" s="11"/>
       <c r="H13" s="15">
-        <f>F10*E10</f>
+        <f>F10*E10/1000000</f>
         <v>0</v>
       </c>
     </row>
@@ -1114,7 +1137,7 @@
       <c r="F14" s="18"/>
       <c r="G14" s="18"/>
       <c r="H14" s="19">
-        <f>G14*E14</f>
+        <f>G14*E14/1000000</f>
         <v>0</v>
       </c>
     </row>
@@ -1657,7 +1680,7 @@
         <v>0</v>
       </c>
       <c r="H42" s="27">
-        <f t="shared" ref="H42:H63" si="3">G42*F42</f>
+        <f t="shared" ref="H42:H70" si="3">G42*F42</f>
         <v>0</v>
       </c>
     </row>
@@ -1989,26 +2012,15 @@
       </c>
     </row>
     <row r="58" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="2"/>
-      <c r="C58" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D58" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E58" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F58" s="31">
-        <v>2000</v>
-      </c>
-      <c r="G58" s="31">
-        <v>0</v>
-      </c>
-      <c r="H58" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="B58" s="28"/>
+      <c r="C58" s="28"/>
+      <c r="D58" s="29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E58" s="28"/>
+      <c r="F58" s="30"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
     </row>
     <row r="59" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B59" s="2"/>
@@ -2016,13 +2028,13 @@
         <v>29</v>
       </c>
       <c r="D59" s="39" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="F59" s="31">
-        <v>7500</v>
+        <v>2000</v>
       </c>
       <c r="G59" s="31">
         <v>0</v>
@@ -2033,29 +2045,40 @@
       </c>
     </row>
     <row r="60" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B60" s="28"/>
-      <c r="C60" s="28"/>
-      <c r="D60" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E60" s="28"/>
-      <c r="F60" s="30"/>
-      <c r="G60" s="30"/>
-      <c r="H60" s="30"/>
+      <c r="B60" s="2"/>
+      <c r="C60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D60" s="39" t="s">
+        <v>72</v>
+      </c>
+      <c r="E60" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F60" s="31">
+        <v>7500</v>
+      </c>
+      <c r="G60" s="31">
+        <v>0</v>
+      </c>
+      <c r="H60" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="61" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D61" s="26" t="s">
-        <v>58</v>
+      <c r="D61" s="39" t="s">
+        <v>73</v>
       </c>
       <c r="E61" s="26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F61" s="31">
-        <v>500</v>
+        <v>750</v>
       </c>
       <c r="G61" s="31">
         <v>0</v>
@@ -2070,11 +2093,11 @@
       <c r="C62" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D62" s="26" t="s">
-        <v>59</v>
+      <c r="D62" s="39" t="s">
+        <v>74</v>
       </c>
       <c r="E62" s="26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F62" s="31">
         <v>750</v>
@@ -2092,14 +2115,14 @@
       <c r="C63" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D63" s="26" t="s">
-        <v>60</v>
+      <c r="D63" s="39" t="s">
+        <v>75</v>
       </c>
       <c r="E63" s="26" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="F63" s="31">
-        <v>1900</v>
+        <v>750</v>
       </c>
       <c r="G63" s="31">
         <v>0</v>
@@ -2109,80 +2132,223 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-      <c r="D64" s="26"/>
-      <c r="E64" s="26"/>
-      <c r="F64" s="31"/>
-      <c r="G64" s="31"/>
-      <c r="H64" s="27"/>
+      <c r="C64" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D64" s="39" t="s">
+        <v>76</v>
+      </c>
+      <c r="E64" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F64" s="31">
+        <v>1800</v>
+      </c>
+      <c r="G64" s="31">
+        <v>0</v>
+      </c>
+      <c r="H64" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="65" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B65" s="33"/>
-      <c r="C65" s="33"/>
-      <c r="D65" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E65" s="33"/>
-      <c r="F65" s="33"/>
-      <c r="G65" s="33"/>
-      <c r="H65" s="35">
-        <f>SUM(H18:H61)</f>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D65" s="39" t="s">
+        <v>77</v>
+      </c>
+      <c r="E65" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F65" s="31">
+        <v>5500</v>
+      </c>
+      <c r="G65" s="31">
+        <v>0</v>
+      </c>
+      <c r="H65" s="27">
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-      <c r="D66" s="3"/>
-      <c r="E66" s="2"/>
-      <c r="F66" s="2"/>
-      <c r="G66" s="2"/>
-      <c r="H66" s="36"/>
+      <c r="C66" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D66" s="39" t="s">
+        <v>78</v>
+      </c>
+      <c r="E66" s="26" t="s">
+        <v>26</v>
+      </c>
+      <c r="F66" s="31">
+        <v>5500</v>
+      </c>
+      <c r="G66" s="31">
+        <v>0</v>
+      </c>
+      <c r="H66" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="67" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-      <c r="D67" s="3"/>
-      <c r="E67" s="2"/>
-      <c r="F67" s="2"/>
-      <c r="G67" s="2"/>
-      <c r="H67" s="36"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="28"/>
+      <c r="D67" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="E67" s="28"/>
+      <c r="F67" s="30"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
     </row>
     <row r="68" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-      <c r="D68" s="3"/>
-      <c r="E68" s="2"/>
-      <c r="F68" s="2"/>
-      <c r="G68" s="2"/>
-      <c r="H68" s="36"/>
+      <c r="C68" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D68" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E68" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F68" s="31">
+        <v>500</v>
+      </c>
+      <c r="G68" s="31">
+        <v>0</v>
+      </c>
+      <c r="H68" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B69" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="C69" s="44"/>
-      <c r="D69" s="44"/>
-      <c r="E69" s="44"/>
-      <c r="F69" s="44"/>
-      <c r="G69" s="44"/>
-      <c r="H69" s="44"/>
+      <c r="B69" s="2"/>
+      <c r="C69" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D69" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="E69" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F69" s="31">
+        <v>750</v>
+      </c>
+      <c r="G69" s="31">
+        <v>0</v>
+      </c>
+      <c r="H69" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-      <c r="D70" s="2"/>
-      <c r="E70" s="2"/>
-      <c r="F70" s="37"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="38"/>
+      <c r="C70" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D70" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="E70" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="F70" s="31">
+        <v>1900</v>
+      </c>
+      <c r="G70" s="31">
+        <v>0</v>
+      </c>
+      <c r="H70" s="27">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+      <c r="D71" s="26"/>
+      <c r="E71" s="26"/>
+      <c r="F71" s="31"/>
+      <c r="G71" s="31"/>
+      <c r="H71" s="27"/>
+    </row>
+    <row r="72" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="33"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="34" t="s">
+        <v>61</v>
+      </c>
+      <c r="E72" s="33"/>
+      <c r="F72" s="33"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="35">
+        <f>SUM(H18:H70)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+      <c r="D73" s="3"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="36"/>
+    </row>
+    <row r="74" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+      <c r="D74" s="3"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="36"/>
+    </row>
+    <row r="75" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+      <c r="D75" s="3"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="36"/>
+    </row>
+    <row r="76" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B76" s="45" t="s">
+        <v>62</v>
+      </c>
+      <c r="C76" s="45"/>
+      <c r="D76" s="45"/>
+      <c r="E76" s="45"/>
+      <c r="F76" s="45"/>
+      <c r="G76" s="45"/>
+      <c r="H76" s="45"/>
+    </row>
+    <row r="77" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+      <c r="D77" s="2"/>
+      <c r="E77" s="2"/>
+      <c r="F77" s="37"/>
+      <c r="G77" s="37"/>
+      <c r="H77" s="38"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B69:H69"/>
+    <mergeCell ref="B76:H76"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BathDream/wwwroot/templates/BDTemplate.xlsx
+++ b/BathDream/wwwroot/templates/BDTemplate.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wizar\YandexDisk\Oleg\Coding\web\BathDream\BathDream\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B148FA1A-FC37-418A-959C-4E5C51CD94EF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA0A6BE-CAB6-4E10-9542-9608ED1951F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E2F010F3-4C9E-4144-B942-1168527CF023}"/>
   </bookViews>
@@ -1516,20 +1516,19 @@
         <v>29</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="E34" s="26" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F34" s="31">
-        <v>300</v>
-      </c>
-      <c r="G34" s="31">
-        <v>0</v>
-      </c>
-      <c r="H34" s="27">
-        <f>G34*F34</f>
-        <v>0</v>
+        <v>350</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="31" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
@@ -1538,13 +1537,13 @@
         <v>29</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="E35" s="26" t="s">
         <v>34</v>
       </c>
       <c r="F35" s="31">
-        <v>350</v>
+        <v>1050</v>
       </c>
       <c r="G35" s="2">
         <v>0</v>
@@ -1559,19 +1558,20 @@
         <v>29</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E36" s="26" t="s">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="F36" s="31">
-        <v>1050</v>
-      </c>
-      <c r="G36" s="2">
-        <v>0</v>
-      </c>
-      <c r="H36" s="31" t="s">
-        <v>35</v>
+        <v>300</v>
+      </c>
+      <c r="G36" s="31">
+        <v>0</v>
+      </c>
+      <c r="H36" s="27">
+        <f>G36*F36</f>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">

--- a/BathDream/wwwroot/templates/BDTemplate.xlsx
+++ b/BathDream/wwwroot/templates/BDTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wizar\YandexDisk\Oleg\Coding\web\BathDream\BathDream\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CA0A6BE-CAB6-4E10-9542-9608ED1951F3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670270D5-A4C1-4CEB-92CF-E1AF98F09F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E2F010F3-4C9E-4144-B942-1168527CF023}"/>
   </bookViews>
@@ -34,20 +34,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="84">
   <si>
     <t xml:space="preserve">Приложение № 1 </t>
   </si>
   <si>
-    <t>К договору №_____________</t>
-  </si>
-  <si>
-    <t>Адрес объекта: г. Москва, ул. Севанская д. 3</t>
-  </si>
-  <si>
-    <t>Сметный расчет</t>
-  </si>
-  <si>
     <t>Тел. 88007773377</t>
   </si>
   <si>
@@ -115,9 +106,6 @@
   </si>
   <si>
     <t>шт.</t>
-  </si>
-  <si>
-    <t>Полотенцесушитель</t>
   </si>
   <si>
     <t>Аксесуары</t>
@@ -255,9 +243,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Гигеенический душь</t>
-  </si>
-  <si>
     <t>точка</t>
   </si>
   <si>
@@ -286,6 +271,33 @@
   </si>
   <si>
     <t>Замена труб</t>
+  </si>
+  <si>
+    <t>Адрес объекта: _____________________________________</t>
+  </si>
+  <si>
+    <t>К договору №______________________________________</t>
+  </si>
+  <si>
+    <t>Сметный расчет:</t>
+  </si>
+  <si>
+    <t>Гигеенический душ</t>
+  </si>
+  <si>
+    <t>Полотенцесушитель (электрический/водяной)</t>
+  </si>
+  <si>
+    <t>Сантехнический люк</t>
+  </si>
+  <si>
+    <t>Прочее</t>
+  </si>
+  <si>
+    <t>Возведение стен</t>
+  </si>
+  <si>
+    <t>Установка дверей</t>
   </si>
 </sst>
 </file>
@@ -563,12 +575,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="65">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="165" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -595,9 +606,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -617,9 +625,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
@@ -638,6 +643,50 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="4" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -960,16 +1009,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A86F66E-AF72-43D6-AF64-092C22F93DEF}">
   <sheetPr codeName="Лист11"/>
-  <dimension ref="A1:H77"/>
+  <dimension ref="A1:H81"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="41"/>
+    <col min="1" max="1" width="9.140625" style="38"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="59.42578125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="48" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="36" customWidth="1"/>
     <col min="16" max="16" width="13.85546875" customWidth="1"/>
@@ -979,72 +1029,72 @@
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="2" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="42" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="43"/>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="44"/>
+      <c r="B2" s="61" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="62"/>
+      <c r="D2" s="62"/>
+      <c r="E2" s="62"/>
+      <c r="F2" s="62"/>
+      <c r="G2" s="62"/>
+      <c r="H2" s="63"/>
     </row>
     <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="1"/>
       <c r="C3" s="2"/>
       <c r="D3" s="3" t="s">
-        <v>1</v>
+        <v>76</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="4">
+      <c r="G3" s="49">
         <v>44063</v>
       </c>
-      <c r="H3" s="5"/>
+      <c r="H3" s="4"/>
     </row>
     <row r="4" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="2"/>
       <c r="D4" s="3" t="s">
-        <v>2</v>
+        <v>75</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="6"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="5"/>
     </row>
     <row r="5" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="1"/>
       <c r="C5" s="2"/>
-      <c r="D5" s="7" t="s">
-        <v>3</v>
+      <c r="D5" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="6"/>
+      <c r="G5" s="50"/>
+      <c r="H5" s="5"/>
     </row>
     <row r="6" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B6" s="1"/>
       <c r="C6" s="2"/>
-      <c r="D6" s="7" t="s">
-        <v>4</v>
+      <c r="D6" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="6"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="5"/>
     </row>
     <row r="7" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="2"/>
-      <c r="D7" s="7" t="s">
-        <v>5</v>
+      <c r="D7" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="6"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="5"/>
     </row>
     <row r="8" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B8" s="1"/>
@@ -1052,91 +1102,91 @@
       <c r="D8" s="3"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="6"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="5"/>
     </row>
     <row r="9" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B9" s="8"/>
-      <c r="C9" s="9"/>
-      <c r="D9" s="10" t="s">
+      <c r="B9" s="7"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="G9" s="51" t="s">
         <v>6</v>
       </c>
-      <c r="E9" s="11" t="s">
+      <c r="H9" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F9" s="11" t="s">
+    </row>
+    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B10" s="7"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="E10" s="37"/>
+      <c r="F10" s="37"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="13"/>
+    </row>
+    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B11" s="7"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="51"/>
+      <c r="H11" s="14">
+        <f>E10*F10/1000000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B10" s="8"/>
-      <c r="C10" s="9"/>
-      <c r="D10" s="13" t="s">
+      <c r="E12" s="10"/>
+      <c r="F12" s="10"/>
+      <c r="G12" s="51"/>
+      <c r="H12" s="14">
+        <f>(2*(F10+E10)*G10-H14)/1000000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="14"/>
-    </row>
-    <row r="11" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B11" s="8"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="11" t="s">
+      <c r="E13" s="10"/>
+      <c r="F13" s="10"/>
+      <c r="G13" s="51"/>
+      <c r="H13" s="14">
+        <f>F10*E10/1000000</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="15">
-        <f>E10*F10/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B12" s="8"/>
-      <c r="C12" s="9"/>
-      <c r="D12" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11"/>
-      <c r="H12" s="15">
-        <f>(2*(F10+E10)*G10-H14)/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="15">
-        <f>F10*E10/1000000</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="E14" s="18"/>
-      <c r="F14" s="18"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19">
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="53"/>
+      <c r="H14" s="18">
         <f>G14*E14/1000000</f>
         <v>0</v>
       </c>
@@ -1147,92 +1197,92 @@
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
       <c r="F15" s="2"/>
-      <c r="G15" s="2"/>
+      <c r="G15" s="50"/>
       <c r="H15" s="2"/>
     </row>
     <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20" t="s">
+      <c r="G16" s="54" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="21" t="s">
+      <c r="H16" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="22" t="s">
+    </row>
+    <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B17" s="22"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="H16" s="23" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="55"/>
+      <c r="H17" s="22"/>
     </row>
     <row r="18" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E18" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F18" s="2">
+        <v>59</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F18" s="44">
         <v>3300</v>
       </c>
-      <c r="G18" s="2">
-        <v>0</v>
-      </c>
-      <c r="H18" s="27">
+      <c r="G18" s="50">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
         <f t="shared" ref="H18:H25" si="0">G18*F18</f>
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B19" s="28"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="29" t="s">
-        <v>12</v>
-      </c>
-      <c r="E19" s="28"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
+      <c r="B19" s="26"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="27" t="s">
+        <v>9</v>
+      </c>
+      <c r="E19" s="26"/>
+      <c r="F19" s="45"/>
+      <c r="G19" s="56"/>
+      <c r="H19" s="28"/>
     </row>
     <row r="20" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D20" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="E20" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="31">
+        <v>25</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F20" s="41">
         <v>150</v>
       </c>
-      <c r="G20" s="31">
-        <v>0</v>
-      </c>
-      <c r="H20" s="27">
+      <c r="G20" s="57">
+        <v>0</v>
+      </c>
+      <c r="H20" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1240,21 +1290,21 @@
     <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="E21" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F21" s="31">
+        <v>25</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F21" s="41">
         <v>600</v>
       </c>
-      <c r="G21" s="31">
-        <v>0</v>
-      </c>
-      <c r="H21" s="27">
+      <c r="G21" s="57">
+        <v>0</v>
+      </c>
+      <c r="H21" s="25">
         <f>G21*F21</f>
         <v>0</v>
       </c>
@@ -1262,21 +1312,21 @@
     <row r="22" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D22" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F22" s="31">
+        <v>25</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F22" s="41">
         <v>300</v>
       </c>
-      <c r="G22" s="31">
-        <v>0</v>
-      </c>
-      <c r="H22" s="27">
+      <c r="G22" s="57">
+        <v>0</v>
+      </c>
+      <c r="H22" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1284,21 +1334,21 @@
     <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D23" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E23" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F23" s="31">
+        <v>25</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F23" s="41">
         <v>2100</v>
       </c>
-      <c r="G23" s="31">
-        <v>0</v>
-      </c>
-      <c r="H23" s="27">
+      <c r="G23" s="57">
+        <v>0</v>
+      </c>
+      <c r="H23" s="25">
         <f>G23*F23</f>
         <v>0</v>
       </c>
@@ -1306,21 +1356,21 @@
     <row r="24" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D24" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E24" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F24" s="31">
+        <v>25</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F24" s="41">
         <v>300</v>
       </c>
-      <c r="G24" s="31">
-        <v>0</v>
-      </c>
-      <c r="H24" s="27">
+      <c r="G24" s="57">
+        <v>0</v>
+      </c>
+      <c r="H24" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1328,21 +1378,21 @@
     <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B25" s="2"/>
       <c r="C25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D25" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E25" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F25" s="31">
+        <v>25</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F25" s="41">
         <v>300</v>
       </c>
-      <c r="G25" s="31">
-        <v>0</v>
-      </c>
-      <c r="H25" s="27">
+      <c r="G25" s="57">
+        <v>0</v>
+      </c>
+      <c r="H25" s="25">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
@@ -1350,74 +1400,74 @@
     <row r="26" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B26" s="2"/>
       <c r="C26" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D26" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E26" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F26" s="31">
+      <c r="E26" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F26" s="41">
         <v>350</v>
       </c>
-      <c r="G26" s="2">
-        <v>0</v>
-      </c>
-      <c r="H26" s="31" t="s">
-        <v>35</v>
+      <c r="G26" s="50">
+        <v>0</v>
+      </c>
+      <c r="H26" s="29" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B27" s="2"/>
       <c r="C27" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D27" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E27" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F27" s="31">
+        <v>25</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F27" s="41">
         <v>1050</v>
       </c>
-      <c r="G27" s="2">
-        <v>0</v>
-      </c>
-      <c r="H27" s="31" t="s">
-        <v>35</v>
+      <c r="G27" s="50">
+        <v>0</v>
+      </c>
+      <c r="H27" s="29" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="29" t="s">
-        <v>13</v>
-      </c>
-      <c r="E28" s="28"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
+      <c r="B28" s="26"/>
+      <c r="C28" s="26"/>
+      <c r="D28" s="27" t="s">
+        <v>10</v>
+      </c>
+      <c r="E28" s="26"/>
+      <c r="F28" s="45"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="28"/>
     </row>
     <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D29" s="26" t="s">
-        <v>38</v>
-      </c>
-      <c r="E29" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F29" s="31">
+        <v>25</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F29" s="41">
         <v>150</v>
       </c>
-      <c r="G29" s="31">
-        <v>0</v>
-      </c>
-      <c r="H29" s="27">
+      <c r="G29" s="57">
+        <v>0</v>
+      </c>
+      <c r="H29" s="25">
         <f>G29*F29</f>
         <v>0</v>
       </c>
@@ -1425,21 +1475,21 @@
     <row r="30" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D30" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F30" s="31">
+        <v>25</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F30" s="41">
         <v>600</v>
       </c>
-      <c r="G30" s="31">
-        <v>0</v>
-      </c>
-      <c r="H30" s="27">
+      <c r="G30" s="57">
+        <v>0</v>
+      </c>
+      <c r="H30" s="25">
         <f t="shared" ref="H30:H31" si="1">G30*F30</f>
         <v>0</v>
       </c>
@@ -1447,21 +1497,21 @@
     <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D31" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F31" s="31">
+        <v>25</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="E31" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F31" s="41">
         <v>300</v>
       </c>
-      <c r="G31" s="31">
-        <v>0</v>
-      </c>
-      <c r="H31" s="27">
+      <c r="G31" s="57">
+        <v>0</v>
+      </c>
+      <c r="H31" s="25">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
@@ -1469,21 +1519,21 @@
     <row r="32" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D32" s="26" t="s">
-        <v>39</v>
-      </c>
-      <c r="E32" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F32" s="31">
+        <v>25</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="E32" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="41">
         <v>2100</v>
       </c>
-      <c r="G32" s="31">
-        <v>0</v>
-      </c>
-      <c r="H32" s="27">
+      <c r="G32" s="57">
+        <v>0</v>
+      </c>
+      <c r="H32" s="25">
         <f>G32*F32</f>
         <v>0</v>
       </c>
@@ -1491,21 +1541,21 @@
     <row r="33" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D33" s="26" t="s">
-        <v>32</v>
-      </c>
-      <c r="E33" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F33" s="31">
+        <v>25</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="E33" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F33" s="41">
         <v>200</v>
       </c>
-      <c r="G33" s="31">
-        <v>0</v>
-      </c>
-      <c r="H33" s="27">
+      <c r="G33" s="57">
+        <v>0</v>
+      </c>
+      <c r="H33" s="25">
         <f>G33*F33</f>
         <v>0</v>
       </c>
@@ -1513,96 +1563,96 @@
     <row r="34" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D34" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D34" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="E34" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F34" s="31">
+      <c r="E34" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="41">
         <v>350</v>
       </c>
-      <c r="G34" s="2">
-        <v>0</v>
-      </c>
-      <c r="H34" s="31" t="s">
-        <v>35</v>
+      <c r="G34" s="50">
+        <v>0</v>
+      </c>
+      <c r="H34" s="29" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D35" s="26" t="s">
-        <v>36</v>
-      </c>
-      <c r="E35" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="F35" s="31">
+        <v>25</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="E35" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="F35" s="41">
         <v>1050</v>
       </c>
-      <c r="G35" s="2">
-        <v>0</v>
-      </c>
-      <c r="H35" s="31" t="s">
-        <v>35</v>
+      <c r="G35" s="50">
+        <v>0</v>
+      </c>
+      <c r="H35" s="29" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B36" s="2"/>
       <c r="C36" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D36" s="26" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="31">
+        <v>25</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="E36" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F36" s="41">
         <v>300</v>
       </c>
-      <c r="G36" s="31">
-        <v>0</v>
-      </c>
-      <c r="H36" s="27">
+      <c r="G36" s="57">
+        <v>0</v>
+      </c>
+      <c r="H36" s="25">
         <f>G36*F36</f>
         <v>0</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B37" s="28"/>
-      <c r="C37" s="28"/>
-      <c r="D37" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="E37" s="28"/>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
+      <c r="B37" s="26"/>
+      <c r="C37" s="26"/>
+      <c r="D37" s="27" t="s">
+        <v>37</v>
+      </c>
+      <c r="E37" s="26"/>
+      <c r="F37" s="45"/>
+      <c r="G37" s="56"/>
+      <c r="H37" s="28"/>
     </row>
     <row r="38" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D38" s="26" t="s">
-        <v>42</v>
-      </c>
-      <c r="E38" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F38" s="31">
+        <v>25</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="E38" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F38" s="41">
         <v>500</v>
       </c>
-      <c r="G38" s="31">
-        <v>0</v>
-      </c>
-      <c r="H38" s="27">
+      <c r="G38" s="57">
+        <v>0</v>
+      </c>
+      <c r="H38" s="25">
         <f>G38*F38</f>
         <v>0</v>
       </c>
@@ -1610,21 +1660,21 @@
     <row r="39" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B39" s="2"/>
       <c r="C39" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>43</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F39" s="31">
+        <v>25</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="E39" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="41">
         <v>1200</v>
       </c>
-      <c r="G39" s="31">
-        <v>0</v>
-      </c>
-      <c r="H39" s="27">
+      <c r="G39" s="57">
+        <v>0</v>
+      </c>
+      <c r="H39" s="25">
         <f>G39*F39</f>
         <v>0</v>
       </c>
@@ -1632,97 +1682,97 @@
     <row r="40" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D40" s="26" t="s">
-        <v>37</v>
-      </c>
-      <c r="E40" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F40" s="31">
+        <v>25</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="E40" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F40" s="41">
         <v>1200</v>
       </c>
-      <c r="G40" s="2">
-        <v>0</v>
-      </c>
-      <c r="H40" s="27">
+      <c r="G40" s="50">
+        <v>0</v>
+      </c>
+      <c r="H40" s="25">
         <f t="shared" ref="H40" si="2">G40*F40</f>
         <v>0</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B41" s="28"/>
-      <c r="C41" s="28"/>
-      <c r="D41" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="E41" s="28"/>
-      <c r="F41" s="30"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="30"/>
-    </row>
-    <row r="42" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B42" s="2"/>
-      <c r="C42" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="39" t="s">
-        <v>25</v>
-      </c>
-      <c r="E42" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F42" s="31">
-        <v>4800</v>
-      </c>
-      <c r="G42" s="31">
-        <v>0</v>
-      </c>
-      <c r="H42" s="27">
-        <f t="shared" ref="H42:H70" si="3">G42*F42</f>
+      <c r="B41" s="26"/>
+      <c r="C41" s="26"/>
+      <c r="D41" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="26"/>
+      <c r="F41" s="45"/>
+      <c r="G41" s="56"/>
+      <c r="H41" s="28"/>
+    </row>
+    <row r="42" spans="2:8" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42" s="39"/>
+      <c r="C42" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D42" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="E42" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F42" s="46">
+        <v>5500</v>
+      </c>
+      <c r="G42" s="58">
+        <v>0</v>
+      </c>
+      <c r="H42" s="40">
+        <f t="shared" ref="H42:H74" si="3">G42*F42</f>
         <v>0</v>
       </c>
     </row>
     <row r="43" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="39" t="s">
-        <v>45</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F43" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G43" s="31">
-        <v>0</v>
-      </c>
-      <c r="H43" s="27" t="s">
-        <v>68</v>
+        <v>25</v>
+      </c>
+      <c r="D43" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="E43" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F43" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G43" s="57">
+        <v>0</v>
+      </c>
+      <c r="H43" s="25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D44" s="39" t="s">
-        <v>47</v>
-      </c>
-      <c r="E44" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F44" s="31">
+        <v>25</v>
+      </c>
+      <c r="D44" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="E44" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F44" s="41">
         <v>20000</v>
       </c>
-      <c r="G44" s="31">
-        <v>0</v>
-      </c>
-      <c r="H44" s="27">
+      <c r="G44" s="57">
+        <v>0</v>
+      </c>
+      <c r="H44" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1730,63 +1780,63 @@
     <row r="45" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D45" s="39" t="s">
-        <v>48</v>
-      </c>
-      <c r="E45" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F45" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G45" s="31">
-        <v>0</v>
-      </c>
-      <c r="H45" s="27" t="s">
-        <v>68</v>
+        <v>25</v>
+      </c>
+      <c r="D45" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="E45" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F45" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G45" s="57">
+        <v>0</v>
+      </c>
+      <c r="H45" s="25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="47.25" x14ac:dyDescent="0.25">
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D46" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="E46" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F46" s="32" t="s">
-        <v>46</v>
-      </c>
-      <c r="G46" s="31">
-        <v>0</v>
-      </c>
-      <c r="H46" s="27" t="s">
-        <v>68</v>
+        <v>25</v>
+      </c>
+      <c r="D46" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="47" t="s">
+        <v>42</v>
+      </c>
+      <c r="G46" s="57">
+        <v>0</v>
+      </c>
+      <c r="H46" s="25" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D47" s="39" t="s">
-        <v>50</v>
-      </c>
-      <c r="E47" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F47" s="31">
-        <v>3500</v>
-      </c>
-      <c r="G47" s="31">
-        <v>0</v>
-      </c>
-      <c r="H47" s="27">
+        <v>25</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="E47" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="41">
+        <v>4500</v>
+      </c>
+      <c r="G47" s="57">
+        <v>0</v>
+      </c>
+      <c r="H47" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1794,21 +1844,21 @@
     <row r="48" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D48" s="39" t="s">
-        <v>51</v>
-      </c>
-      <c r="E48" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F48" s="31">
+        <v>25</v>
+      </c>
+      <c r="D48" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="E48" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F48" s="41">
         <v>7500</v>
       </c>
-      <c r="G48" s="31">
-        <v>0</v>
-      </c>
-      <c r="H48" s="27">
+      <c r="G48" s="57">
+        <v>0</v>
+      </c>
+      <c r="H48" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1816,21 +1866,21 @@
     <row r="49" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D49" s="39" t="s">
-        <v>52</v>
-      </c>
-      <c r="E49" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F49" s="31">
-        <v>3700</v>
-      </c>
-      <c r="G49" s="31">
-        <v>0</v>
-      </c>
-      <c r="H49" s="27">
+        <v>25</v>
+      </c>
+      <c r="D49" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="E49" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F49" s="41">
+        <v>4500</v>
+      </c>
+      <c r="G49" s="57">
+        <v>0</v>
+      </c>
+      <c r="H49" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1838,21 +1888,21 @@
     <row r="50" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D50" s="39" t="s">
-        <v>53</v>
-      </c>
-      <c r="E50" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F50" s="31">
+        <v>25</v>
+      </c>
+      <c r="D50" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="E50" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F50" s="41">
         <v>3500</v>
       </c>
-      <c r="G50" s="31">
-        <v>0</v>
-      </c>
-      <c r="H50" s="27">
+      <c r="G50" s="57">
+        <v>0</v>
+      </c>
+      <c r="H50" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1860,21 +1910,21 @@
     <row r="51" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D51" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="E51" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F51" s="31">
+        <v>25</v>
+      </c>
+      <c r="D51" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F51" s="41">
         <v>3700</v>
       </c>
-      <c r="G51" s="31">
-        <v>0</v>
-      </c>
-      <c r="H51" s="27">
+      <c r="G51" s="57">
+        <v>0</v>
+      </c>
+      <c r="H51" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1882,21 +1932,21 @@
     <row r="52" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D52" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="E52" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F52" s="31">
-        <v>3700</v>
-      </c>
-      <c r="G52" s="31">
-        <v>0</v>
-      </c>
-      <c r="H52" s="27">
+        <v>25</v>
+      </c>
+      <c r="D52" s="36" t="s">
+        <v>78</v>
+      </c>
+      <c r="E52" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F52" s="41">
+        <v>2800</v>
+      </c>
+      <c r="G52" s="57">
+        <v>0</v>
+      </c>
+      <c r="H52" s="25">
         <f t="shared" ref="H52" si="4">G52*F52</f>
         <v>0</v>
       </c>
@@ -1904,21 +1954,21 @@
     <row r="53" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D53" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="E53" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F53" s="31">
+        <v>25</v>
+      </c>
+      <c r="D53" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="E53" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F53" s="41">
         <v>3500</v>
       </c>
-      <c r="G53" s="31">
-        <v>0</v>
-      </c>
-      <c r="H53" s="27">
+      <c r="G53" s="57">
+        <v>0</v>
+      </c>
+      <c r="H53" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1926,21 +1976,21 @@
     <row r="54" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D54" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="E54" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F54" s="31">
+        <v>25</v>
+      </c>
+      <c r="D54" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="E54" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F54" s="41">
         <v>2500</v>
       </c>
-      <c r="G54" s="31">
-        <v>0</v>
-      </c>
-      <c r="H54" s="27">
+      <c r="G54" s="57">
+        <v>0</v>
+      </c>
+      <c r="H54" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1948,21 +1998,21 @@
     <row r="55" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D55" s="39" t="s">
-        <v>57</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" s="31">
+        <v>25</v>
+      </c>
+      <c r="D55" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E55" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F55" s="41">
         <v>4000</v>
       </c>
-      <c r="G55" s="31">
-        <v>0</v>
-      </c>
-      <c r="H55" s="27">
+      <c r="G55" s="57">
+        <v>0</v>
+      </c>
+      <c r="H55" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1970,21 +2020,21 @@
     <row r="56" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D56" s="39" t="s">
-        <v>27</v>
-      </c>
-      <c r="E56" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F56" s="31">
-        <v>7500</v>
-      </c>
-      <c r="G56" s="31">
-        <v>0</v>
-      </c>
-      <c r="H56" s="27">
+        <v>25</v>
+      </c>
+      <c r="D56" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="E56" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F56" s="41">
+        <v>4500</v>
+      </c>
+      <c r="G56" s="57">
+        <v>0</v>
+      </c>
+      <c r="H56" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -1992,76 +2042,76 @@
     <row r="57" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D57" s="39" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F57" s="31">
+        <v>25</v>
+      </c>
+      <c r="D57" s="36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E57" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F57" s="41">
         <v>500</v>
       </c>
-      <c r="G57" s="31">
-        <v>0</v>
-      </c>
-      <c r="H57" s="27">
+      <c r="G57" s="57">
+        <v>0</v>
+      </c>
+      <c r="H57" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B58" s="28"/>
-      <c r="C58" s="28"/>
-      <c r="D58" s="29" t="s">
-        <v>79</v>
-      </c>
-      <c r="E58" s="28"/>
-      <c r="F58" s="30"/>
-      <c r="G58" s="30"/>
-      <c r="H58" s="30"/>
+    <row r="58" spans="2:8" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B58" s="39"/>
+      <c r="C58" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D58" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="E58" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F58" s="46">
+        <v>4500</v>
+      </c>
+      <c r="G58" s="58">
+        <v>0</v>
+      </c>
+      <c r="H58" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="59" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B59" s="2"/>
-      <c r="C59" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D59" s="39" t="s">
-        <v>71</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>70</v>
-      </c>
-      <c r="F59" s="31">
-        <v>2000</v>
-      </c>
-      <c r="G59" s="31">
-        <v>0</v>
-      </c>
-      <c r="H59" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="B59" s="26"/>
+      <c r="C59" s="26"/>
+      <c r="D59" s="27" t="s">
+        <v>74</v>
+      </c>
+      <c r="E59" s="26"/>
+      <c r="F59" s="45"/>
+      <c r="G59" s="56"/>
+      <c r="H59" s="28"/>
     </row>
     <row r="60" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D60" s="39" t="s">
-        <v>72</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F60" s="31">
-        <v>7500</v>
-      </c>
-      <c r="G60" s="31">
-        <v>0</v>
-      </c>
-      <c r="H60" s="27">
+        <v>25</v>
+      </c>
+      <c r="D60" s="36" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F60" s="41">
+        <v>2000</v>
+      </c>
+      <c r="G60" s="57">
+        <v>0</v>
+      </c>
+      <c r="H60" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2069,21 +2119,21 @@
     <row r="61" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D61" s="39" t="s">
-        <v>73</v>
-      </c>
-      <c r="E61" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F61" s="31">
-        <v>750</v>
-      </c>
-      <c r="G61" s="31">
-        <v>0</v>
-      </c>
-      <c r="H61" s="27">
+        <v>25</v>
+      </c>
+      <c r="D61" s="36" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="F61" s="41">
+        <v>1100</v>
+      </c>
+      <c r="G61" s="57">
+        <v>0</v>
+      </c>
+      <c r="H61" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2091,21 +2141,21 @@
     <row r="62" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D62" s="39" t="s">
-        <v>74</v>
-      </c>
-      <c r="E62" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F62" s="31">
-        <v>750</v>
-      </c>
-      <c r="G62" s="31">
-        <v>0</v>
-      </c>
-      <c r="H62" s="27">
+        <v>25</v>
+      </c>
+      <c r="D62" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F62" s="41">
+        <v>1200</v>
+      </c>
+      <c r="G62" s="57">
+        <v>0</v>
+      </c>
+      <c r="H62" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2113,21 +2163,21 @@
     <row r="63" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D63" s="39" t="s">
-        <v>75</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F63" s="31">
-        <v>750</v>
-      </c>
-      <c r="G63" s="31">
-        <v>0</v>
-      </c>
-      <c r="H63" s="27">
+        <v>25</v>
+      </c>
+      <c r="D63" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F63" s="41">
+        <v>1200</v>
+      </c>
+      <c r="G63" s="57">
+        <v>0</v>
+      </c>
+      <c r="H63" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2135,21 +2185,21 @@
     <row r="64" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D64" s="39" t="s">
-        <v>76</v>
-      </c>
-      <c r="E64" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F64" s="31">
-        <v>1800</v>
-      </c>
-      <c r="G64" s="31">
-        <v>0</v>
-      </c>
-      <c r="H64" s="27">
+        <v>25</v>
+      </c>
+      <c r="D64" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="41">
+        <v>1200</v>
+      </c>
+      <c r="G64" s="57">
+        <v>0</v>
+      </c>
+      <c r="H64" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2157,21 +2207,21 @@
     <row r="65" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D65" s="39" t="s">
-        <v>77</v>
-      </c>
-      <c r="E65" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F65" s="31">
-        <v>5500</v>
-      </c>
-      <c r="G65" s="31">
-        <v>0</v>
-      </c>
-      <c r="H65" s="27">
+        <v>25</v>
+      </c>
+      <c r="D65" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F65" s="41">
+        <v>1800</v>
+      </c>
+      <c r="G65" s="57">
+        <v>0</v>
+      </c>
+      <c r="H65" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2179,76 +2229,76 @@
     <row r="66" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D66" s="39" t="s">
-        <v>78</v>
-      </c>
-      <c r="E66" s="26" t="s">
-        <v>26</v>
-      </c>
-      <c r="F66" s="31">
+        <v>25</v>
+      </c>
+      <c r="D66" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F66" s="41">
         <v>5500</v>
       </c>
-      <c r="G66" s="31">
-        <v>0</v>
-      </c>
-      <c r="H66" s="27">
+      <c r="G66" s="57">
+        <v>0</v>
+      </c>
+      <c r="H66" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B67" s="28"/>
-      <c r="C67" s="28"/>
-      <c r="D67" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="E67" s="28"/>
-      <c r="F67" s="30"/>
-      <c r="G67" s="30"/>
-      <c r="H67" s="30"/>
+      <c r="B67" s="2"/>
+      <c r="C67" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D67" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="F67" s="41">
+        <v>5500</v>
+      </c>
+      <c r="G67" s="57">
+        <v>0</v>
+      </c>
+      <c r="H67" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B68" s="2"/>
-      <c r="C68" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D68" s="26" t="s">
-        <v>58</v>
-      </c>
-      <c r="E68" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F68" s="31">
-        <v>500</v>
-      </c>
-      <c r="G68" s="31">
-        <v>0</v>
-      </c>
-      <c r="H68" s="27">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+      <c r="B68" s="26"/>
+      <c r="C68" s="26"/>
+      <c r="D68" s="27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" s="26"/>
+      <c r="F68" s="45"/>
+      <c r="G68" s="56"/>
+      <c r="H68" s="28"/>
     </row>
     <row r="69" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D69" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="E69" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F69" s="31">
-        <v>750</v>
-      </c>
-      <c r="G69" s="31">
-        <v>0</v>
-      </c>
-      <c r="H69" s="27">
+        <v>25</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="E69" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F69" s="41">
+        <v>500</v>
+      </c>
+      <c r="G69" s="57">
+        <v>0</v>
+      </c>
+      <c r="H69" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
@@ -2256,99 +2306,176 @@
     <row r="70" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D70" s="26" t="s">
-        <v>60</v>
-      </c>
-      <c r="E70" s="26" t="s">
-        <v>24</v>
-      </c>
-      <c r="F70" s="31">
+        <v>25</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="E70" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F70" s="41">
+        <v>2000</v>
+      </c>
+      <c r="G70" s="57">
+        <v>0</v>
+      </c>
+      <c r="H70" s="25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="E71" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="F71" s="41">
         <v>1900</v>
       </c>
-      <c r="G70" s="31">
-        <v>0</v>
-      </c>
-      <c r="H70" s="27">
+      <c r="G71" s="57">
+        <v>0</v>
+      </c>
+      <c r="H71" s="25">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="71" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-      <c r="D71" s="26"/>
-      <c r="E71" s="26"/>
-      <c r="F71" s="31"/>
-      <c r="G71" s="31"/>
-      <c r="H71" s="27"/>
-    </row>
-    <row r="72" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B72" s="33"/>
-      <c r="C72" s="33"/>
-      <c r="D72" s="34" t="s">
-        <v>61</v>
-      </c>
-      <c r="E72" s="33"/>
-      <c r="F72" s="33"/>
-      <c r="G72" s="33"/>
-      <c r="H72" s="35">
-        <f>SUM(H18:H70)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-      <c r="D73" s="3"/>
-      <c r="E73" s="2"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="2"/>
-      <c r="H73" s="36"/>
-    </row>
-    <row r="74" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-      <c r="D74" s="3"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="36"/>
-    </row>
-    <row r="75" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:8" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B72" s="26"/>
+      <c r="C72" s="26"/>
+      <c r="D72" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="E72" s="26"/>
+      <c r="F72" s="45"/>
+      <c r="G72" s="56"/>
+      <c r="H72" s="28"/>
+    </row>
+    <row r="73" spans="2:8" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B73" s="39"/>
+      <c r="C73" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D73" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E73" s="36" t="s">
+        <v>21</v>
+      </c>
+      <c r="F73" s="46">
+        <v>0</v>
+      </c>
+      <c r="G73" s="58">
+        <v>0</v>
+      </c>
+      <c r="H73" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B74" s="39"/>
+      <c r="C74" s="39" t="s">
+        <v>25</v>
+      </c>
+      <c r="D74" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="E74" s="36" t="s">
+        <v>23</v>
+      </c>
+      <c r="F74" s="46">
+        <v>4500</v>
+      </c>
+      <c r="G74" s="58">
+        <v>0</v>
+      </c>
+      <c r="H74" s="40">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B75" s="2"/>
       <c r="C75" s="2"/>
-      <c r="D75" s="3"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="36"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="29"/>
+      <c r="G75" s="57"/>
+      <c r="H75" s="25"/>
     </row>
     <row r="76" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B76" s="45" t="s">
-        <v>62</v>
-      </c>
-      <c r="C76" s="45"/>
-      <c r="D76" s="45"/>
-      <c r="E76" s="45"/>
-      <c r="F76" s="45"/>
-      <c r="G76" s="45"/>
-      <c r="H76" s="45"/>
+      <c r="B76" s="30"/>
+      <c r="C76" s="30"/>
+      <c r="D76" s="31" t="s">
+        <v>57</v>
+      </c>
+      <c r="E76" s="30"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="59"/>
+      <c r="H76" s="32">
+        <f>SUM(H18:H71)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B77" s="2"/>
       <c r="C77" s="2"/>
-      <c r="D77" s="2"/>
+      <c r="D77" s="3"/>
       <c r="E77" s="2"/>
-      <c r="F77" s="37"/>
-      <c r="G77" s="37"/>
-      <c r="H77" s="38"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="50"/>
+      <c r="H77" s="33"/>
+    </row>
+    <row r="78" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+      <c r="D78" s="3"/>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="50"/>
+      <c r="H78" s="33"/>
+    </row>
+    <row r="79" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+      <c r="D79" s="3"/>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="50"/>
+      <c r="H79" s="33"/>
+    </row>
+    <row r="80" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B80" s="64" t="s">
+        <v>58</v>
+      </c>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
+    </row>
+    <row r="81" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="60"/>
+      <c r="H81" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B2:H2"/>
-    <mergeCell ref="B76:H76"/>
+    <mergeCell ref="B80:H80"/>
   </mergeCells>
   <phoneticPr fontId="8" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BathDream/wwwroot/templates/BDTemplate.xlsx
+++ b/BathDream/wwwroot/templates/BDTemplate.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23628"/>
   <workbookPr codeName="ЭтаКнига" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wizar\YandexDisk\Oleg\Coding\web\BathDream\BathDream\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670270D5-A4C1-4CEB-92CF-E1AF98F09F2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7455B6D1-DFC1-4CEF-8548-CF98A93864A6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E2F010F3-4C9E-4144-B942-1168527CF023}"/>
   </bookViews>
@@ -1011,7 +1011,9 @@
   <sheetPr codeName="Лист11"/>
   <dimension ref="A1:H81"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1021,10 +1023,9 @@
     <col min="6" max="6" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.42578125" style="48" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="36" customWidth="1"/>
-    <col min="16" max="16" width="13.85546875" customWidth="1"/>
-    <col min="19" max="19" width="14.42578125" customWidth="1"/>
-    <col min="20" max="20" width="14" customWidth="1"/>
+    <col min="15" max="15" width="13.85546875" customWidth="1"/>
+    <col min="18" max="18" width="14.42578125" customWidth="1"/>
+    <col min="19" max="19" width="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1244,7 +1245,7 @@
         <v>21</v>
       </c>
       <c r="F18" s="44">
-        <v>3300</v>
+        <v>2970</v>
       </c>
       <c r="G18" s="50">
         <v>0</v>
@@ -1277,7 +1278,7 @@
         <v>21</v>
       </c>
       <c r="F20" s="41">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G20" s="57">
         <v>0</v>
@@ -1299,7 +1300,7 @@
         <v>21</v>
       </c>
       <c r="F21" s="41">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="G21" s="57">
         <v>0</v>
@@ -1321,7 +1322,7 @@
         <v>21</v>
       </c>
       <c r="F22" s="41">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="G22" s="57">
         <v>0</v>
@@ -1343,7 +1344,7 @@
         <v>21</v>
       </c>
       <c r="F23" s="41">
-        <v>2100</v>
+        <v>1890</v>
       </c>
       <c r="G23" s="57">
         <v>0</v>
@@ -1365,7 +1366,7 @@
         <v>21</v>
       </c>
       <c r="F24" s="41">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="G24" s="57">
         <v>0</v>
@@ -1387,7 +1388,7 @@
         <v>21</v>
       </c>
       <c r="F25" s="41">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="G25" s="57">
         <v>0</v>
@@ -1409,7 +1410,7 @@
         <v>30</v>
       </c>
       <c r="F26" s="41">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="G26" s="50">
         <v>0</v>
@@ -1430,7 +1431,7 @@
         <v>30</v>
       </c>
       <c r="F27" s="41">
-        <v>1050</v>
+        <v>945</v>
       </c>
       <c r="G27" s="50">
         <v>0</v>
@@ -1462,7 +1463,7 @@
         <v>21</v>
       </c>
       <c r="F29" s="41">
-        <v>150</v>
+        <v>135</v>
       </c>
       <c r="G29" s="57">
         <v>0</v>
@@ -1484,7 +1485,7 @@
         <v>21</v>
       </c>
       <c r="F30" s="41">
-        <v>600</v>
+        <v>540</v>
       </c>
       <c r="G30" s="57">
         <v>0</v>
@@ -1506,7 +1507,7 @@
         <v>21</v>
       </c>
       <c r="F31" s="41">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="G31" s="57">
         <v>0</v>
@@ -1528,7 +1529,7 @@
         <v>21</v>
       </c>
       <c r="F32" s="41">
-        <v>2100</v>
+        <v>1890</v>
       </c>
       <c r="G32" s="57">
         <v>0</v>
@@ -1550,7 +1551,7 @@
         <v>21</v>
       </c>
       <c r="F33" s="41">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="G33" s="57">
         <v>0</v>
@@ -1572,7 +1573,7 @@
         <v>30</v>
       </c>
       <c r="F34" s="41">
-        <v>350</v>
+        <v>315</v>
       </c>
       <c r="G34" s="50">
         <v>0</v>
@@ -1593,7 +1594,7 @@
         <v>30</v>
       </c>
       <c r="F35" s="41">
-        <v>1050</v>
+        <v>945</v>
       </c>
       <c r="G35" s="50">
         <v>0</v>
@@ -1614,7 +1615,7 @@
         <v>21</v>
       </c>
       <c r="F36" s="41">
-        <v>300</v>
+        <v>270</v>
       </c>
       <c r="G36" s="57">
         <v>0</v>
@@ -1647,7 +1648,7 @@
         <v>23</v>
       </c>
       <c r="F38" s="41">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G38" s="57">
         <v>0</v>
@@ -1669,7 +1670,7 @@
         <v>23</v>
       </c>
       <c r="F39" s="41">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="G39" s="57">
         <v>0</v>
@@ -1691,7 +1692,7 @@
         <v>21</v>
       </c>
       <c r="F40" s="41">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="G40" s="50">
         <v>0</v>
@@ -1723,8 +1724,8 @@
       <c r="E42" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F42" s="46">
-        <v>5500</v>
+      <c r="F42" s="41">
+        <v>4950</v>
       </c>
       <c r="G42" s="58">
         <v>0</v>
@@ -1767,7 +1768,7 @@
         <v>23</v>
       </c>
       <c r="F44" s="41">
-        <v>20000</v>
+        <v>18000</v>
       </c>
       <c r="G44" s="57">
         <v>0</v>
@@ -1831,7 +1832,7 @@
         <v>23</v>
       </c>
       <c r="F47" s="41">
-        <v>4500</v>
+        <v>4050</v>
       </c>
       <c r="G47" s="57">
         <v>0</v>
@@ -1853,7 +1854,7 @@
         <v>23</v>
       </c>
       <c r="F48" s="41">
-        <v>7500</v>
+        <v>6750</v>
       </c>
       <c r="G48" s="57">
         <v>0</v>
@@ -1875,7 +1876,7 @@
         <v>23</v>
       </c>
       <c r="F49" s="41">
-        <v>4500</v>
+        <v>4050</v>
       </c>
       <c r="G49" s="57">
         <v>0</v>
@@ -1897,7 +1898,7 @@
         <v>23</v>
       </c>
       <c r="F50" s="41">
-        <v>3500</v>
+        <v>3150</v>
       </c>
       <c r="G50" s="57">
         <v>0</v>
@@ -1919,7 +1920,7 @@
         <v>23</v>
       </c>
       <c r="F51" s="41">
-        <v>3700</v>
+        <v>3330</v>
       </c>
       <c r="G51" s="57">
         <v>0</v>
@@ -1941,7 +1942,7 @@
         <v>23</v>
       </c>
       <c r="F52" s="41">
-        <v>2800</v>
+        <v>2520</v>
       </c>
       <c r="G52" s="57">
         <v>0</v>
@@ -1963,7 +1964,7 @@
         <v>23</v>
       </c>
       <c r="F53" s="41">
-        <v>3500</v>
+        <v>3150</v>
       </c>
       <c r="G53" s="57">
         <v>0</v>
@@ -1985,7 +1986,7 @@
         <v>23</v>
       </c>
       <c r="F54" s="41">
-        <v>2500</v>
+        <v>2250</v>
       </c>
       <c r="G54" s="57">
         <v>0</v>
@@ -2007,7 +2008,7 @@
         <v>23</v>
       </c>
       <c r="F55" s="41">
-        <v>4000</v>
+        <v>3600</v>
       </c>
       <c r="G55" s="57">
         <v>0</v>
@@ -2029,7 +2030,7 @@
         <v>23</v>
       </c>
       <c r="F56" s="41">
-        <v>4500</v>
+        <v>4050</v>
       </c>
       <c r="G56" s="57">
         <v>0</v>
@@ -2051,7 +2052,7 @@
         <v>23</v>
       </c>
       <c r="F57" s="41">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G57" s="57">
         <v>0</v>
@@ -2072,8 +2073,8 @@
       <c r="E58" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F58" s="46">
-        <v>4500</v>
+      <c r="F58" s="41">
+        <v>4050</v>
       </c>
       <c r="G58" s="58">
         <v>0</v>
@@ -2106,7 +2107,7 @@
         <v>65</v>
       </c>
       <c r="F60" s="41">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="G60" s="57">
         <v>0</v>
@@ -2128,7 +2129,7 @@
         <v>65</v>
       </c>
       <c r="F61" s="41">
-        <v>1100</v>
+        <v>990</v>
       </c>
       <c r="G61" s="57">
         <v>0</v>
@@ -2150,7 +2151,7 @@
         <v>23</v>
       </c>
       <c r="F62" s="41">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="G62" s="57">
         <v>0</v>
@@ -2172,7 +2173,7 @@
         <v>23</v>
       </c>
       <c r="F63" s="41">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="G63" s="57">
         <v>0</v>
@@ -2194,7 +2195,7 @@
         <v>23</v>
       </c>
       <c r="F64" s="41">
-        <v>1200</v>
+        <v>1080</v>
       </c>
       <c r="G64" s="57">
         <v>0</v>
@@ -2216,7 +2217,7 @@
         <v>23</v>
       </c>
       <c r="F65" s="41">
-        <v>1800</v>
+        <v>1620</v>
       </c>
       <c r="G65" s="57">
         <v>0</v>
@@ -2238,7 +2239,7 @@
         <v>23</v>
       </c>
       <c r="F66" s="41">
-        <v>5500</v>
+        <v>4950</v>
       </c>
       <c r="G66" s="57">
         <v>0</v>
@@ -2260,7 +2261,7 @@
         <v>23</v>
       </c>
       <c r="F67" s="41">
-        <v>5500</v>
+        <v>4950</v>
       </c>
       <c r="G67" s="57">
         <v>0</v>
@@ -2293,7 +2294,7 @@
         <v>21</v>
       </c>
       <c r="F69" s="41">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="G69" s="57">
         <v>0</v>
@@ -2315,7 +2316,7 @@
         <v>21</v>
       </c>
       <c r="F70" s="41">
-        <v>2000</v>
+        <v>1800</v>
       </c>
       <c r="G70" s="57">
         <v>0</v>
@@ -2337,7 +2338,7 @@
         <v>21</v>
       </c>
       <c r="F71" s="41">
-        <v>1900</v>
+        <v>1710</v>
       </c>
       <c r="G71" s="57">
         <v>0</v>
@@ -2391,8 +2392,8 @@
       <c r="E74" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F74" s="46">
-        <v>4500</v>
+      <c r="F74" s="41">
+        <v>4050</v>
       </c>
       <c r="G74" s="58">
         <v>0</v>
